--- a/m1/u1/ejercicios/20191030/Funciones de Texto/Repaso Textos y fechas.xlsx
+++ b/m1/u1/ejercicios/20191030/Funciones de Texto/Repaso Textos y fechas.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +902,10 @@
       <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="str">
+        <f>CONCATENATE(E4," ",C4," ",D4)</f>
+        <v>JOSÉ MARÍA ALCÁNTARA DÍAZ</v>
+      </c>
     </row>
     <row r="5" spans="3:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="14"/>
@@ -935,7 +938,10 @@
       <c r="E9" s="5">
         <v>2012</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="13" t="str">
+        <f>CONCATENATE(C9,"/",D9,"/",E9)</f>
+        <v>2/3/2012</v>
+      </c>
     </row>
     <row r="15" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
@@ -950,7 +956,10 @@
       <c r="C17" s="7">
         <v>985725698</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="15" t="str">
+        <f>LEFT(C17,3)</f>
+        <v>985</v>
+      </c>
     </row>
     <row r="19" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
@@ -965,7 +974,10 @@
       <c r="C21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="16" t="str">
+        <f>RIGHT(C21,1)</f>
+        <v>H</v>
+      </c>
     </row>
     <row r="25" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
@@ -980,7 +992,10 @@
       <c r="C27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="8" t="str">
+        <f>MID(C27,FIND(" ",C27,1),LEN(C27))</f>
+        <v xml:space="preserve"> PEREZ SANCHEZ</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
